--- a/data/ken_adminboundaries_tabulardata_v2.xlsx
+++ b/data/ken_adminboundaries_tabulardata_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanywng\Documents\R\eie_wg_5ws\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanywng\Documents\R\operation_come_to_school\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0CBAD9-9B30-47F2-8187-C446E3F512C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDB82AF-C7F9-46BF-BCAB-5D8ADC1D3CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19103" yWindow="-98" windowWidth="28995" windowHeight="16395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADM0" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="711">
   <si>
     <t>ADM0_EN</t>
   </si>
@@ -2149,6 +2149,15 @@
   </si>
   <si>
     <t>Marigat</t>
+  </si>
+  <si>
+    <t>Isinya</t>
+  </si>
+  <si>
+    <t>Loitoktok</t>
+  </si>
+  <si>
+    <t>Mashuru</t>
   </si>
 </sst>
 </file>
@@ -3720,8 +3729,8 @@
   <dimension ref="A1:M291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F271" sqref="F271"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5307,6 +5316,9 @@
       <c r="B54" t="s">
         <v>478</v>
       </c>
+      <c r="D54" t="s">
+        <v>710</v>
+      </c>
       <c r="F54" t="s">
         <v>25</v>
       </c>
@@ -5336,6 +5348,9 @@
       <c r="B55" t="s">
         <v>479</v>
       </c>
+      <c r="D55" t="s">
+        <v>708</v>
+      </c>
       <c r="F55" t="s">
         <v>25</v>
       </c>
@@ -5364,6 +5379,9 @@
       </c>
       <c r="B56" t="s">
         <v>480</v>
+      </c>
+      <c r="D56" t="s">
+        <v>709</v>
       </c>
       <c r="F56" t="s">
         <v>25</v>
